--- a/model/datasets/Dengue_PH_Fct2.xlsx
+++ b/model/datasets/Dengue_PH_Fct2.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cirrolytix\Documents\GitHub\nasa_hack\nasa_hack\model\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fct" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
   <si>
     <t>MTD_Cases</t>
   </si>
@@ -112,15 +118,33 @@
   <si>
     <t>[0.0016323121042014473, 0.039320759556571334, 0.016557094292541753, 0.290643056338691, 0.4320068726017722, 0.21844890279418097, 0.19086778475163754, 0.05646014745335013, 0.05829663148216058]</t>
   </si>
+  <si>
+    <t>Actual Cases</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -180,13 +204,1603 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>10435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5670</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35580</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32650</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11433.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7087.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10894</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31609</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15842</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28265</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11391</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9585</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5457</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7327</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4473</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5537</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14828</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17793</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20896</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20367</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14173</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8758</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6841</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6215</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7321</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19203</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58390</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47407.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35481.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27369</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-703E-4C91-B541-3A9947E6405F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$L$2:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>5805.6432760173348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5711.099785588247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18102.353637162789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43433.022012820533</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30469.651902487181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59885.690592761377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29955.067396532049</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13890.584515252651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5129.1365887130187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8629.761237316603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12897.86141128997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13881.73016765136</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3514.7863240753381</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12869.95990542115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24611.925520733559</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24611.141262468082</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39938.515465712262</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19697.112645325731</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13526.637019278591</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21694.665691366288</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24641.605269780961</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10832.995276370761</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11579.192111010319</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8301.9370777365675</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3116.3592255159501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8693.836801225425</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11664.8335794995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28088.901069561351</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18275.707963560981</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13921.283528965831</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11009.612204229599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19301.662756972841</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33512.549181368937</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4296.8195877652342</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11309.677218243171</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9378.6878040606061</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6671.6493641687784</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9164.7170368879997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21675.367602459519</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42264.522957005916</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39634.01944072418</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52723.868292360683</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6089.6494911482323</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51733.712468411759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-703E-4C91-B541-3A9947E6405F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$M$2:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>5762.5748398955102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5787.016182024332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18252.951781639418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38158.358176787733</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28624.482779210099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54313.936916095503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19674.608337176531</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19889.072888199331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6394.4711171714589</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8171.236297201468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13860.03864875716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14692.035465749321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3250.5349069596541</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12881.956730785891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24775.48714217652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21772.19333586713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41988.331191623758</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14618.4316204185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20532.202954422752</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22653.87159693271</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25165.18900381646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11403.38487917205</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11443.71728504503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8293.7847699397025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3341.3613876293221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8741.3008276324872</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11852.927392167119</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26501.50118537973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18285.291918731211</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12706.59676870019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11004.590962789351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19356.32772166342</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33631.281972223776</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5347.3283307690153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11594.573537144001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9781.1230610263465</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6890.9283747832596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8555.6246323129726</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22319.41993956003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37651.882486119473</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40068.916220763072</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55624.815011671439</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3281.0460969727951</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52148.511011901654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-703E-4C91-B541-3A9947E6405F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$N$2:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>5702.9411596876571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5742.6311727786306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17965.022894649039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43809.985398998273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29767.947625453529</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63104.473073716363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28530.409650500489</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15528.041300931331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5301.8864195277019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8428.3887737728764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10158.501848928339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14293.98060450374</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3648.1318448353318</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12780.807915037991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24664.825358094698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25031.451668823331</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40691.409689011431</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20811.754628903589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14830.92471855586</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22290.305396883181</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25485.906925670159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11083.495847761589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8303.2446567031675</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8790.8521328446004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3163.619562301446</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8690.0477872792435</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11701.622371510501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28415.849606388962</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18291.218378509209</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15165.335245847191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10810.12170612453</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19944.427571725249</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34982.294704108652</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4238.4235274039493</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9302.8522520546321</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9768.9358243489241</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6682.5229162547421</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9254.3167123703788</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21819.090157633909</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42300.226564952121</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42645.226667340503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55887.895664479838</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5073.7817230053233</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52997.220481969976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-703E-4C91-B541-3A9947E6405F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="390237696"/>
+        <c:axId val="356135152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="390237696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356135152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="356135152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390237696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -232,7 +1846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +1878,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,6 +1913,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,14 +2089,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:N49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -523,8 +2144,17 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42035</v>
       </c>
@@ -544,7 +2174,7 @@
         <v>0.1125</v>
       </c>
       <c r="G2">
-        <v>0.3025</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="H2">
         <v>0.1925</v>
@@ -556,10 +2186,22 @@
         <v>0.1875</v>
       </c>
       <c r="K2">
-        <v>0.002779108768567322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>2.7791087685673219E-3</v>
+      </c>
+      <c r="P2">
+        <f>CORREL($B6:$B49,L6:L49)</f>
+        <v>0.78222826409271118</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:R2" si="0">CORREL($B6:$B49,M6:M49)</f>
+        <v>0.72958539906237518</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0.78084429648222742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42063</v>
       </c>
@@ -576,25 +2218,37 @@
         <v>1.866666666666666</v>
       </c>
       <c r="F3">
-        <v>0.1025</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="G3">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="H3">
         <v>0.1875</v>
       </c>
       <c r="I3">
-        <v>0.1325</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="J3">
         <v>0.1525</v>
       </c>
       <c r="K3">
-        <v>0.002360160490913382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>2.360160490913382E-3</v>
+      </c>
+      <c r="P3">
+        <f>RSQ($B6:$B49,L6:L49)</f>
+        <v>0.61188105714549668</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:R3" si="1">RSQ($B6:$B49,M6:M49)</f>
+        <v>0.53229485452500525</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>0.60971781534882463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42094</v>
       </c>
@@ -611,25 +2265,25 @@
         <v>6.7</v>
       </c>
       <c r="F4">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G4">
         <v>0.152</v>
       </c>
       <c r="H4">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="I4">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J4">
         <v>0.114</v>
       </c>
       <c r="K4">
-        <v>0.002654531664770573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>2.6545316647705731E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42124</v>
       </c>
@@ -640,16 +2294,16 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>29.96666666666667</v>
+        <v>29.966666666666669</v>
       </c>
       <c r="E5">
         <v>23.1</v>
       </c>
       <c r="F5">
-        <v>0.0575</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="G5">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="H5">
         <v>0.06</v>
@@ -658,13 +2312,13 @@
         <v>0.09</v>
       </c>
       <c r="J5">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K5">
-        <v>0.003880070546737213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>3.880070546737213E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42155</v>
       </c>
@@ -675,40 +2329,40 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>30.53333333333333</v>
+        <v>30.533333333333331</v>
       </c>
       <c r="E6">
-        <v>73.33333333333333</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="F6">
-        <v>0.05400000000000001</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="G6">
         <v>0.154</v>
       </c>
       <c r="H6">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I6">
-        <v>0.142</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="J6">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="K6">
-        <v>0.003686327077747989</v>
+        <v>3.6863270777479891E-3</v>
       </c>
       <c r="L6">
-        <v>5805.643276017335</v>
+        <v>5805.6432760173348</v>
       </c>
       <c r="M6">
-        <v>5762.57483989551</v>
+        <v>5762.5748398955102</v>
       </c>
       <c r="N6">
-        <v>5702.941159687657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>5702.9411596876571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42185</v>
       </c>
@@ -722,7 +2376,7 @@
         <v>30.2</v>
       </c>
       <c r="E7">
-        <v>192.3333333333333</v>
+        <v>192.33333333333329</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -731,16 +2385,16 @@
         <v>0.21</v>
       </c>
       <c r="H7">
-        <v>0.1325</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="I7">
-        <v>0.2625</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="J7">
-        <v>0.1325</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="K7">
-        <v>0.003904216553878188</v>
+        <v>3.904216553878188E-3</v>
       </c>
       <c r="L7">
         <v>5711.099785588247</v>
@@ -749,10 +2403,10 @@
         <v>5787.016182024332</v>
       </c>
       <c r="N7">
-        <v>5742.631172778631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>5742.6311727786306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42216</v>
       </c>
@@ -763,10 +2417,10 @@
         <v>80</v>
       </c>
       <c r="D8">
-        <v>28.46666666666667</v>
+        <v>28.466666666666669</v>
       </c>
       <c r="E8">
-        <v>464.1333333333334</v>
+        <v>464.13333333333338</v>
       </c>
       <c r="F8">
         <v>0.1525</v>
@@ -775,28 +2429,28 @@
         <v>0.36</v>
       </c>
       <c r="H8">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="I8">
-        <v>0.2775</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="J8">
         <v>0.255</v>
       </c>
       <c r="K8">
-        <v>0.003469511666232978</v>
+        <v>3.4695116662329778E-3</v>
       </c>
       <c r="L8">
-        <v>18102.35363716279</v>
+        <v>18102.353637162789</v>
       </c>
       <c r="M8">
-        <v>18252.95178163942</v>
+        <v>18252.951781639418</v>
       </c>
       <c r="N8">
-        <v>17965.02289464904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>17965.022894649039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42247</v>
       </c>
@@ -807,40 +2461,40 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>28.76666666666667</v>
+        <v>28.766666666666669</v>
       </c>
       <c r="E9">
-        <v>338.9333333333333</v>
+        <v>338.93333333333328</v>
       </c>
       <c r="F9">
-        <v>0.202</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="G9">
         <v>0.45</v>
       </c>
       <c r="H9">
-        <v>0.286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="I9">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="J9">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="K9">
-        <v>0.002810567734682406</v>
+        <v>2.810567734682406E-3</v>
       </c>
       <c r="L9">
-        <v>43433.02201282053</v>
+        <v>43433.022012820533</v>
       </c>
       <c r="M9">
-        <v>38158.35817678773</v>
+        <v>38158.358176787733</v>
       </c>
       <c r="N9">
-        <v>43809.98539899827</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>43809.985398998273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42277</v>
       </c>
@@ -857,34 +2511,34 @@
         <v>392.1</v>
       </c>
       <c r="F10">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="G10">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="H10">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I10">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J10">
         <v>0.46</v>
       </c>
       <c r="K10">
-        <v>0.002848392036753446</v>
+        <v>2.8483920367534461E-3</v>
       </c>
       <c r="L10">
-        <v>30469.65190248718</v>
+        <v>30469.651902487181</v>
       </c>
       <c r="M10">
-        <v>28624.4827792101</v>
+        <v>28624.482779210099</v>
       </c>
       <c r="N10">
-        <v>29767.94762545353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>29767.947625453529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42308</v>
       </c>
@@ -898,13 +2552,13 @@
         <v>28.6</v>
       </c>
       <c r="E11">
-        <v>198.0666666666667</v>
+        <v>198.06666666666669</v>
       </c>
       <c r="F11">
         <v>0.34</v>
       </c>
       <c r="G11">
-        <v>0.6775</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="H11">
         <v>0.51</v>
@@ -913,22 +2567,22 @@
         <v>0.42</v>
       </c>
       <c r="J11">
-        <v>0.4925</v>
+        <v>0.49249999999999999</v>
       </c>
       <c r="K11">
-        <v>0.002789122422552047</v>
+        <v>2.789122422552047E-3</v>
       </c>
       <c r="L11">
-        <v>59885.69059276138</v>
+        <v>59885.690592761377</v>
       </c>
       <c r="M11">
-        <v>54313.9369160955</v>
+        <v>54313.936916095503</v>
       </c>
       <c r="N11">
-        <v>63104.47307371636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>63104.473073716363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42338</v>
       </c>
@@ -948,31 +2602,31 @@
         <v>0.23</v>
       </c>
       <c r="G12">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="H12">
-        <v>0.3779999999999999</v>
+        <v>0.37799999999999989</v>
       </c>
       <c r="I12">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="J12">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K12">
-        <v>0.003145492349522845</v>
+        <v>3.1454923495228449E-3</v>
       </c>
       <c r="L12">
-        <v>29955.06739653205</v>
+        <v>29955.067396532049</v>
       </c>
       <c r="M12">
-        <v>19674.60833717653</v>
+        <v>19674.608337176531</v>
       </c>
       <c r="N12">
-        <v>28530.40965050049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>28530.409650500489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42369</v>
       </c>
@@ -983,40 +2637,40 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>27.53333333333333</v>
+        <v>27.533333333333331</v>
       </c>
       <c r="E13">
         <v>294.2</v>
       </c>
       <c r="F13">
-        <v>0.1425</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="G13">
         <v>0.27</v>
       </c>
       <c r="H13">
-        <v>0.3625</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="I13">
-        <v>0.3325</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="J13">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="K13">
-        <v>0.002570033410434336</v>
+        <v>2.570033410434336E-3</v>
       </c>
       <c r="L13">
-        <v>13890.58451525265</v>
+        <v>13890.584515252651</v>
       </c>
       <c r="M13">
-        <v>19889.07288819933</v>
+        <v>19889.072888199331</v>
       </c>
       <c r="N13">
-        <v>15528.04130093133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>15528.041300931331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42400</v>
       </c>
@@ -1027,40 +2681,40 @@
         <v>35</v>
       </c>
       <c r="D14">
-        <v>27.76666666666667</v>
+        <v>27.766666666666669</v>
       </c>
       <c r="E14">
         <v>2.5</v>
       </c>
       <c r="F14">
-        <v>0.162</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="G14">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H14">
         <v>0.37</v>
       </c>
       <c r="I14">
-        <v>0.272</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="J14">
         <v>0.216</v>
       </c>
       <c r="K14">
-        <v>0.003822212515015835</v>
+        <v>3.8222125150158348E-3</v>
       </c>
       <c r="L14">
-        <v>5129.136588713019</v>
+        <v>5129.1365887130187</v>
       </c>
       <c r="M14">
-        <v>6394.471117171459</v>
+        <v>6394.4711171714589</v>
       </c>
       <c r="N14">
-        <v>5301.886419527702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>5301.8864195277019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42429</v>
       </c>
@@ -1071,28 +2725,28 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>27.26666666666667</v>
+        <v>27.266666666666669</v>
       </c>
       <c r="E15">
         <v>30.9</v>
       </c>
       <c r="F15">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="G15">
-        <v>0.2625</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="H15">
         <v>0.1275</v>
       </c>
       <c r="I15">
-        <v>0.3525</v>
+        <v>0.35249999999999998</v>
       </c>
       <c r="J15">
         <v>0.17</v>
       </c>
       <c r="K15">
-        <v>0.003114294612270321</v>
+        <v>3.1142946122703209E-3</v>
       </c>
       <c r="L15">
         <v>8629.761237316603</v>
@@ -1101,10 +2755,10 @@
         <v>8171.236297201468</v>
       </c>
       <c r="N15">
-        <v>8428.388773772876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>8428.3887737728764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42460</v>
       </c>
@@ -1121,7 +2775,7 @@
         <v>1.3</v>
       </c>
       <c r="F16">
-        <v>0.1025</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="G16">
         <v>0.185</v>
@@ -1130,13 +2784,13 @@
         <v>0.12</v>
       </c>
       <c r="I16">
-        <v>0.2125</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="J16">
-        <v>0.1175</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="K16">
-        <v>0.004147784007988325</v>
+        <v>4.1477840079883251E-3</v>
       </c>
       <c r="L16">
         <v>12897.86141128997</v>
@@ -1145,10 +2799,10 @@
         <v>13860.03864875716</v>
       </c>
       <c r="N16">
-        <v>10158.50184892834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>10158.501848928339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42490</v>
       </c>
@@ -1162,37 +2816,37 @@
         <v>30.86666666666666</v>
       </c>
       <c r="E17">
-        <v>18.76666666666667</v>
+        <v>18.766666666666669</v>
       </c>
       <c r="F17">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G17">
         <v>0.115</v>
       </c>
       <c r="H17">
-        <v>0.2025</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="I17">
         <v>0.12</v>
       </c>
       <c r="J17">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K17">
-        <v>0.003717268900672388</v>
+        <v>3.7172689006723879E-3</v>
       </c>
       <c r="L17">
         <v>13881.73016765136</v>
       </c>
       <c r="M17">
-        <v>14692.03546574932</v>
+        <v>14692.035465749321</v>
       </c>
       <c r="N17">
         <v>14293.98060450374</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42521</v>
       </c>
@@ -1215,28 +2869,28 @@
         <v>0.128</v>
       </c>
       <c r="H18">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I18">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J18">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="K18">
-        <v>0.003880070546737213</v>
+        <v>3.880070546737213E-3</v>
       </c>
       <c r="L18">
-        <v>3514.786324075338</v>
+        <v>3514.7863240753381</v>
       </c>
       <c r="M18">
-        <v>3250.534906959654</v>
+        <v>3250.5349069596541</v>
       </c>
       <c r="N18">
-        <v>3648.131844835332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>3648.1318448353318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42551</v>
       </c>
@@ -1250,7 +2904,7 @@
         <v>29.9</v>
       </c>
       <c r="E19">
-        <v>180.8333333333333</v>
+        <v>180.83333333333329</v>
       </c>
       <c r="F19">
         <v>0.11</v>
@@ -1259,28 +2913,28 @@
         <v>0.185</v>
       </c>
       <c r="H19">
-        <v>0.2425</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="I19">
-        <v>0.2325</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="J19">
         <v>0.15</v>
       </c>
       <c r="K19">
-        <v>0.007159904534606206</v>
+        <v>7.1599045346062056E-3</v>
       </c>
       <c r="L19">
         <v>12869.95990542115</v>
       </c>
       <c r="M19">
-        <v>12881.95673078589</v>
+        <v>12881.956730785891</v>
       </c>
       <c r="N19">
-        <v>12780.80791503799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>12780.807915037991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42582</v>
       </c>
@@ -1303,28 +2957,28 @@
         <v>0.39</v>
       </c>
       <c r="H20">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="I20">
-        <v>0.3779999999999999</v>
+        <v>0.37799999999999989</v>
       </c>
       <c r="J20">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="K20">
-        <v>0.004049676025917927</v>
+        <v>4.049676025917927E-3</v>
       </c>
       <c r="L20">
-        <v>24611.92552073356</v>
+        <v>24611.925520733559</v>
       </c>
       <c r="M20">
         <v>24775.48714217652</v>
       </c>
       <c r="N20">
-        <v>24664.8253580947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>24664.825358094698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42613</v>
       </c>
@@ -1341,34 +2995,34 @@
         <v>610.4</v>
       </c>
       <c r="F21">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G21">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="H21">
-        <v>0.4225</v>
+        <v>0.42249999999999999</v>
       </c>
       <c r="I21">
-        <v>0.5375</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="J21">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="K21">
-        <v>0.003730502491174482</v>
+        <v>3.7305024911744819E-3</v>
       </c>
       <c r="L21">
-        <v>24611.14126246808</v>
+        <v>24611.141262468082</v>
       </c>
       <c r="M21">
         <v>21772.19333586713</v>
       </c>
       <c r="N21">
-        <v>25031.45166882333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>25031.451668823331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42643</v>
       </c>
@@ -1379,10 +3033,10 @@
         <v>147</v>
       </c>
       <c r="D22">
-        <v>28.73333333333333</v>
+        <v>28.733333333333331</v>
       </c>
       <c r="E22">
-        <v>307.2666666666667</v>
+        <v>307.26666666666671</v>
       </c>
       <c r="F22">
         <v>0.23</v>
@@ -1391,28 +3045,28 @@
         <v>0.45</v>
       </c>
       <c r="H22">
-        <v>0.3925</v>
+        <v>0.39250000000000002</v>
       </c>
       <c r="I22">
         <v>0.245</v>
       </c>
       <c r="J22">
-        <v>0.3575</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="K22">
-        <v>0.004650574203549622</v>
+        <v>4.6505742035496218E-3</v>
       </c>
       <c r="L22">
-        <v>39938.51546571226</v>
+        <v>39938.515465712262</v>
       </c>
       <c r="M22">
-        <v>41988.33119162376</v>
+        <v>41988.331191623758</v>
       </c>
       <c r="N22">
-        <v>40691.40968901143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>40691.409689011431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42674</v>
       </c>
@@ -1423,40 +3077,40 @@
         <v>185</v>
       </c>
       <c r="D23">
-        <v>28.76666666666667</v>
+        <v>28.766666666666669</v>
       </c>
       <c r="E23">
-        <v>211.2333333333333</v>
+        <v>211.23333333333329</v>
       </c>
       <c r="F23">
         <v>0.18</v>
       </c>
       <c r="G23">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="H23">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="I23">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="J23">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="K23">
-        <v>0.005415056784919799</v>
+        <v>5.415056784919799E-3</v>
       </c>
       <c r="L23">
-        <v>19697.11264532573</v>
+        <v>19697.112645325731</v>
       </c>
       <c r="M23">
         <v>14618.4316204185</v>
       </c>
       <c r="N23">
-        <v>20811.75462890359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>20811.754628903589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42704</v>
       </c>
@@ -1476,31 +3130,31 @@
         <v>0.16</v>
       </c>
       <c r="G24">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H24">
         <v>0.17</v>
       </c>
       <c r="I24">
-        <v>0.2825</v>
+        <v>0.28249999999999997</v>
       </c>
       <c r="J24">
-        <v>0.1625</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="K24">
-        <v>0.00574422421411438</v>
+        <v>5.7442242141143799E-3</v>
       </c>
       <c r="L24">
-        <v>13526.63701927859</v>
+        <v>13526.637019278591</v>
       </c>
       <c r="M24">
-        <v>20532.20295442275</v>
+        <v>20532.202954422752</v>
       </c>
       <c r="N24">
         <v>14830.92471855586</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42735</v>
       </c>
@@ -1511,40 +3165,40 @@
         <v>212</v>
       </c>
       <c r="D25">
-        <v>27.96666666666667</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="E25">
-        <v>98.16666666666667</v>
+        <v>98.166666666666671</v>
       </c>
       <c r="F25">
         <v>0.12</v>
       </c>
       <c r="G25">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="H25">
         <v>0.25</v>
       </c>
       <c r="I25">
-        <v>0.0775</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="J25">
-        <v>0.1625</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="K25">
-        <v>0.007500442243056784</v>
+        <v>7.5004422430567843E-3</v>
       </c>
       <c r="L25">
-        <v>21694.66569136629</v>
+        <v>21694.665691366288</v>
       </c>
       <c r="M25">
         <v>22653.87159693271</v>
       </c>
       <c r="N25">
-        <v>22290.30539688318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>22290.305396883181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42766</v>
       </c>
@@ -1564,31 +3218,31 @@
         <v>0.112</v>
       </c>
       <c r="G26">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="H26">
-        <v>0.226</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="I26">
         <v>0.12</v>
       </c>
       <c r="J26">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="K26">
-        <v>0.005969625142656483</v>
+        <v>5.9696251426564831E-3</v>
       </c>
       <c r="L26">
-        <v>24641.60526978096</v>
+        <v>24641.605269780961</v>
       </c>
       <c r="M26">
         <v>25165.18900381646</v>
       </c>
       <c r="N26">
-        <v>25485.90692567016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>25485.906925670159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42794</v>
       </c>
@@ -1599,40 +3253,40 @@
         <v>62</v>
       </c>
       <c r="D27">
-        <v>26.66666666666667</v>
+        <v>26.666666666666671</v>
       </c>
       <c r="E27">
-        <v>47.03333333333333</v>
+        <v>47.033333333333331</v>
       </c>
       <c r="F27">
-        <v>0.0975</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="G27">
         <v>0.1875</v>
       </c>
       <c r="H27">
-        <v>0.1725</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="I27">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J27">
         <v>0.115</v>
       </c>
       <c r="K27">
-        <v>0.006468440271257173</v>
+        <v>6.4684402712571728E-3</v>
       </c>
       <c r="L27">
-        <v>10832.99527637076</v>
+        <v>10832.995276370761</v>
       </c>
       <c r="M27">
         <v>11403.38487917205</v>
       </c>
       <c r="N27">
-        <v>11083.49584776159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>11083.495847761589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42825</v>
       </c>
@@ -1643,40 +3297,40 @@
         <v>25</v>
       </c>
       <c r="D28">
-        <v>28.23333333333333</v>
+        <v>28.233333333333331</v>
       </c>
       <c r="E28">
-        <v>5.433333333333334</v>
+        <v>5.4333333333333336</v>
       </c>
       <c r="F28">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G28">
         <v>0.21</v>
       </c>
       <c r="H28">
-        <v>0.1675</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="I28">
         <v>0.125</v>
       </c>
       <c r="J28">
-        <v>0.0925</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="K28">
-        <v>0.004581271761040865</v>
+        <v>4.5812717610408654E-3</v>
       </c>
       <c r="L28">
-        <v>11579.19211101032</v>
+        <v>11579.192111010319</v>
       </c>
       <c r="M28">
         <v>11443.71728504503</v>
       </c>
       <c r="N28">
-        <v>8303.244656703167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>8303.2446567031675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42855</v>
       </c>
@@ -1693,34 +3347,34 @@
         <v>84.8</v>
       </c>
       <c r="F29">
-        <v>0.05599999999999999</v>
+        <v>5.5999999999999987E-2</v>
       </c>
       <c r="G29">
         <v>0.122</v>
       </c>
       <c r="H29">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I29">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J29">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K29">
-        <v>0.004640371229698376</v>
+        <v>4.6403712296983757E-3</v>
       </c>
       <c r="L29">
-        <v>8301.937077736568</v>
+        <v>8301.9370777365675</v>
       </c>
       <c r="M29">
-        <v>8293.784769939703</v>
+        <v>8293.7847699397025</v>
       </c>
       <c r="N29">
-        <v>8790.8521328446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>8790.8521328446004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42886</v>
       </c>
@@ -1737,34 +3391,34 @@
         <v>166.1333333333333</v>
       </c>
       <c r="F30">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G30">
-        <v>0.1475</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="H30">
-        <v>0.0275</v>
+        <v>2.75E-2</v>
       </c>
       <c r="I30">
         <v>0.1</v>
       </c>
       <c r="J30">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K30">
-        <v>0.007377598926894702</v>
+        <v>7.3775989268947016E-3</v>
       </c>
       <c r="L30">
-        <v>3116.35922551595</v>
+        <v>3116.3592255159501</v>
       </c>
       <c r="M30">
-        <v>3341.361387629322</v>
+        <v>3341.3613876293221</v>
       </c>
       <c r="N30">
         <v>3163.619562301446</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42916</v>
       </c>
@@ -1787,28 +3441,28 @@
         <v>0.18</v>
       </c>
       <c r="H31">
-        <v>0.0925</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="I31">
         <v>0.2</v>
       </c>
       <c r="J31">
-        <v>0.1175</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="K31">
-        <v>0.005056890012642225</v>
+        <v>5.0568900126422246E-3</v>
       </c>
       <c r="L31">
         <v>8693.836801225425</v>
       </c>
       <c r="M31">
-        <v>8741.300827632487</v>
+        <v>8741.3008276324872</v>
       </c>
       <c r="N31">
-        <v>8690.047787279243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>8690.0477872792435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42947</v>
       </c>
@@ -1819,19 +3473,19 @@
         <v>65</v>
       </c>
       <c r="D32">
-        <v>28.73333333333333</v>
+        <v>28.733333333333331</v>
       </c>
       <c r="E32">
-        <v>405.2366666666667</v>
+        <v>405.23666666666668</v>
       </c>
       <c r="F32">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="G32">
         <v>0.27</v>
       </c>
       <c r="H32">
-        <v>0.172</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="I32">
         <v>0.248</v>
@@ -1840,19 +3494,19 @@
         <v>0.2</v>
       </c>
       <c r="K32">
-        <v>0.004383598597248448</v>
+        <v>4.3835985972484476E-3</v>
       </c>
       <c r="L32">
         <v>11664.8335794995</v>
       </c>
       <c r="M32">
-        <v>11852.92739216712</v>
+        <v>11852.927392167119</v>
       </c>
       <c r="N32">
-        <v>11701.6223715105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>11701.622371510501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42978</v>
       </c>
@@ -1872,7 +3526,7 @@
         <v>0.1825</v>
       </c>
       <c r="G33">
-        <v>0.3575</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="H33">
         <v>0.32</v>
@@ -1884,19 +3538,19 @@
         <v>0.21</v>
       </c>
       <c r="K33">
-        <v>0.005507783959984264</v>
+        <v>5.5077839599842644E-3</v>
       </c>
       <c r="L33">
-        <v>28088.90106956135</v>
+        <v>28088.901069561351</v>
       </c>
       <c r="M33">
         <v>26501.50118537973</v>
       </c>
       <c r="N33">
-        <v>28415.84960638896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>28415.849606388962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43008</v>
       </c>
@@ -1910,7 +3564,7 @@
         <v>28.93333333333333</v>
       </c>
       <c r="E34">
-        <v>417.7366666666667</v>
+        <v>417.73666666666668</v>
       </c>
       <c r="F34">
         <v>0.16</v>
@@ -1928,19 +3582,19 @@
         <v>0.19</v>
       </c>
       <c r="K34">
-        <v>0.005407733537519143</v>
+        <v>5.4077335375191434E-3</v>
       </c>
       <c r="L34">
-        <v>18275.70796356098</v>
+        <v>18275.707963560981</v>
       </c>
       <c r="M34">
-        <v>18285.29191873121</v>
+        <v>18285.291918731211</v>
       </c>
       <c r="N34">
-        <v>18291.21837850921</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>18291.218378509209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43039</v>
       </c>
@@ -1951,40 +3605,40 @@
         <v>131</v>
       </c>
       <c r="D35">
-        <v>28.33333333333333</v>
+        <v>28.333333333333329</v>
       </c>
       <c r="E35">
         <v>245.3</v>
       </c>
       <c r="F35">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="G35">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H35">
-        <v>0.276</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I35">
         <v>0.152</v>
       </c>
       <c r="J35">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="K35">
-        <v>0.006431973290126185</v>
+        <v>6.4319732901261849E-3</v>
       </c>
       <c r="L35">
-        <v>13921.28352896583</v>
+        <v>13921.283528965831</v>
       </c>
       <c r="M35">
         <v>12706.59676870019</v>
       </c>
       <c r="N35">
-        <v>15165.33524584719</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>15165.335245847191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43069</v>
       </c>
@@ -2004,31 +3658,31 @@
         <v>0.15</v>
       </c>
       <c r="G36">
-        <v>0.2775</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="H36">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="I36">
         <v>0.1125</v>
       </c>
       <c r="J36">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="K36">
-        <v>0.005291751922669865</v>
+        <v>5.2917519226698649E-3</v>
       </c>
       <c r="L36">
-        <v>11009.6122042296</v>
+        <v>11009.612204229599</v>
       </c>
       <c r="M36">
-        <v>11004.59096278935</v>
+        <v>11004.590962789351</v>
       </c>
       <c r="N36">
         <v>10810.12170612453</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43100</v>
       </c>
@@ -2042,37 +3696,37 @@
         <v>27.3</v>
       </c>
       <c r="E37">
-        <v>81.89999999999999</v>
+        <v>81.899999999999991</v>
       </c>
       <c r="F37">
         <v>0.216</v>
       </c>
       <c r="G37">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="H37">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I37">
-        <v>0.204</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="J37">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="K37">
-        <v>0.003873118595871942</v>
+        <v>3.8731185958719421E-3</v>
       </c>
       <c r="L37">
-        <v>19301.66275697284</v>
+        <v>19301.662756972841</v>
       </c>
       <c r="M37">
         <v>19356.32772166342</v>
       </c>
       <c r="N37">
-        <v>19944.42757172525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>19944.427571725249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43131</v>
       </c>
@@ -2089,34 +3743,34 @@
         <v>43.1</v>
       </c>
       <c r="F38">
-        <v>0.1725</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="G38">
         <v>0.21</v>
       </c>
       <c r="H38">
-        <v>0.2725</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="I38">
-        <v>0.0725</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="J38">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K38">
-        <v>0.005252340717058689</v>
+        <v>5.2523407170586888E-3</v>
       </c>
       <c r="L38">
-        <v>33512.54918136894</v>
+        <v>33512.549181368937</v>
       </c>
       <c r="M38">
-        <v>33631.28197222378</v>
+        <v>33631.281972223776</v>
       </c>
       <c r="N38">
-        <v>34982.29470410865</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>34982.294704108652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43159</v>
       </c>
@@ -2127,40 +3781,40 @@
         <v>28</v>
       </c>
       <c r="D39">
-        <v>27.66666666666667</v>
+        <v>27.666666666666671</v>
       </c>
       <c r="E39">
         <v>1.166666666666667</v>
       </c>
       <c r="F39">
-        <v>0.1325</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="G39">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="H39">
-        <v>0.1175</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="I39">
         <v>0.215</v>
       </c>
       <c r="J39">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="K39">
-        <v>0.00409296886420114</v>
+        <v>4.0929688642011401E-3</v>
       </c>
       <c r="L39">
-        <v>4296.819587765234</v>
+        <v>4296.8195877652342</v>
       </c>
       <c r="M39">
-        <v>5347.328330769015</v>
+        <v>5347.3283307690153</v>
       </c>
       <c r="N39">
-        <v>4238.423527403949</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>4238.4235274039493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43190</v>
       </c>
@@ -2174,37 +3828,37 @@
         <v>28.2</v>
       </c>
       <c r="E40">
-        <v>26.16666666666667</v>
+        <v>26.166666666666671</v>
       </c>
       <c r="F40">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G40">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H40">
-        <v>0.0975</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="I40">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J40">
-        <v>0.0975</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K40">
-        <v>0.005936991286028919</v>
+        <v>5.9369912860289193E-3</v>
       </c>
       <c r="L40">
-        <v>11309.67721824317</v>
+        <v>11309.677218243171</v>
       </c>
       <c r="M40">
-        <v>11594.573537144</v>
+        <v>11594.573537144001</v>
       </c>
       <c r="N40">
-        <v>9302.852252054632</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>9302.8522520546321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43220</v>
       </c>
@@ -2218,37 +3872,37 @@
         <v>29.7</v>
       </c>
       <c r="E41">
-        <v>40.96666666666666</v>
+        <v>40.966666666666661</v>
       </c>
       <c r="F41">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G41">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="H41">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="I41">
-        <v>0.148</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="J41">
-        <v>0.07400000000000001</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="K41">
-        <v>0.005631536604987933</v>
+        <v>5.6315366049879334E-3</v>
       </c>
       <c r="L41">
-        <v>9378.687804060606</v>
+        <v>9378.6878040606061</v>
       </c>
       <c r="M41">
-        <v>9781.123061026346</v>
+        <v>9781.1230610263465</v>
       </c>
       <c r="N41">
-        <v>9768.935824348924</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>9768.9358243489241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43251</v>
       </c>
@@ -2265,34 +3919,34 @@
         <v>50.3</v>
       </c>
       <c r="F42">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G42">
         <v>0.1275</v>
       </c>
       <c r="H42">
-        <v>0.0475</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.0725</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K42">
-        <v>0.003824614123753586</v>
+        <v>3.824614123753586E-3</v>
       </c>
       <c r="L42">
-        <v>6671.649364168778</v>
+        <v>6671.6493641687784</v>
       </c>
       <c r="M42">
-        <v>6890.92837478326</v>
+        <v>6890.9283747832596</v>
       </c>
       <c r="N42">
-        <v>6682.522916254742</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>6682.5229162547421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43281</v>
       </c>
@@ -2303,40 +3957,40 @@
         <v>79</v>
       </c>
       <c r="D43">
-        <v>28.43333333333334</v>
+        <v>28.433333333333341</v>
       </c>
       <c r="E43">
-        <v>630.9333333333333</v>
+        <v>630.93333333333328</v>
       </c>
       <c r="F43">
-        <v>0.0975</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="G43">
-        <v>0.1475</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="H43">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="I43">
-        <v>0.1175</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="J43">
         <v>0.115</v>
       </c>
       <c r="K43">
-        <v>0.007664693897351315</v>
+        <v>7.664693897351315E-3</v>
       </c>
       <c r="L43">
-        <v>9164.717036888</v>
+        <v>9164.7170368879997</v>
       </c>
       <c r="M43">
-        <v>8555.624632312973</v>
+        <v>8555.6246323129726</v>
       </c>
       <c r="N43">
-        <v>9254.316712370379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>9254.3167123703788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43312</v>
       </c>
@@ -2347,19 +4001,19 @@
         <v>88</v>
       </c>
       <c r="D44">
-        <v>27.73333333333333</v>
+        <v>27.733333333333331</v>
       </c>
       <c r="E44">
         <v>621.5333333333333</v>
       </c>
       <c r="F44">
-        <v>0.198</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="G44">
         <v>0.33</v>
       </c>
       <c r="H44">
-        <v>0.322</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="I44">
         <v>0.192</v>
@@ -2368,19 +4022,19 @@
         <v>0.254</v>
       </c>
       <c r="K44">
-        <v>0.004582617299380305</v>
+        <v>4.582617299380305E-3</v>
       </c>
       <c r="L44">
-        <v>21675.36760245952</v>
+        <v>21675.367602459519</v>
       </c>
       <c r="M44">
         <v>22319.41993956003</v>
       </c>
       <c r="N44">
-        <v>21819.09015763391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>21819.090157633909</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43343</v>
       </c>
@@ -2391,40 +4045,40 @@
         <v>289</v>
       </c>
       <c r="D45">
-        <v>28.03333333333333</v>
+        <v>28.033333333333331</v>
       </c>
       <c r="E45">
-        <v>485.4333333333333</v>
+        <v>485.43333333333328</v>
       </c>
       <c r="F45">
         <v>0.2225</v>
       </c>
       <c r="G45">
-        <v>0.3975</v>
+        <v>0.39750000000000002</v>
       </c>
       <c r="H45">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I45">
         <v>0.3175</v>
       </c>
       <c r="J45">
-        <v>0.2825</v>
+        <v>0.28249999999999997</v>
       </c>
       <c r="K45">
-        <v>0.004949477650282583</v>
+        <v>4.9494776502825829E-3</v>
       </c>
       <c r="L45">
-        <v>42264.52295700592</v>
+        <v>42264.522957005916</v>
       </c>
       <c r="M45">
-        <v>37651.88248611947</v>
+        <v>37651.882486119473</v>
       </c>
       <c r="N45">
-        <v>42300.22656495212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>42300.226564952121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43373</v>
       </c>
@@ -2438,37 +4092,37 @@
         <v>28.36666666666666</v>
       </c>
       <c r="E46">
-        <v>411.4333333333333</v>
+        <v>411.43333333333328</v>
       </c>
       <c r="F46">
         <v>0.19</v>
       </c>
       <c r="G46">
-        <v>0.338</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="H46">
-        <v>0.204</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="I46">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="J46">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="K46">
-        <v>0.004192374624268312</v>
+        <v>4.192374624268312E-3</v>
       </c>
       <c r="L46">
         <v>39634.01944072418</v>
       </c>
       <c r="M46">
-        <v>40068.91622076307</v>
+        <v>40068.916220763072</v>
       </c>
       <c r="N46">
-        <v>42645.2266673405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>42645.226667340503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43404</v>
       </c>
@@ -2476,16 +4130,16 @@
         <v>35481.25</v>
       </c>
       <c r="C47">
-        <v>147.0833333333333</v>
+        <v>147.08333333333329</v>
       </c>
       <c r="D47">
         <v>28.86666666666666</v>
       </c>
       <c r="E47">
-        <v>147.9333333333333</v>
+        <v>147.93333333333331</v>
       </c>
       <c r="F47">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G47">
         <v>0.3125</v>
@@ -2494,25 +4148,25 @@
         <v>0.3125</v>
       </c>
       <c r="I47">
-        <v>0.1025</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="J47">
-        <v>0.2025</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="K47">
-        <v>0.004145381950560742</v>
+        <v>4.1453819505607422E-3</v>
       </c>
       <c r="L47">
-        <v>52723.86829236068</v>
+        <v>52723.868292360683</v>
       </c>
       <c r="M47">
-        <v>55624.81501167144</v>
+        <v>55624.815011671439</v>
       </c>
       <c r="N47">
-        <v>55887.89566447984</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>55887.895664479838</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43434</v>
       </c>
@@ -2523,19 +4177,19 @@
         <v>135</v>
       </c>
       <c r="D48">
-        <v>28.53333333333333</v>
+        <v>28.533333333333331</v>
       </c>
       <c r="E48">
-        <v>13.63333333333333</v>
+        <v>13.633333333333329</v>
       </c>
       <c r="F48">
         <v>0.18</v>
       </c>
       <c r="G48">
-        <v>0.3475</v>
+        <v>0.34749999999999998</v>
       </c>
       <c r="H48">
-        <v>0.2075</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="I48">
         <v>0.215</v>
@@ -2544,19 +4198,19 @@
         <v>0.21</v>
       </c>
       <c r="K48">
-        <v>0.004932587964485367</v>
+        <v>4.932587964485367E-3</v>
       </c>
       <c r="L48">
-        <v>6089.649491148232</v>
+        <v>6089.6494911482323</v>
       </c>
       <c r="M48">
-        <v>3281.046096972795</v>
+        <v>3281.0460969727951</v>
       </c>
       <c r="N48">
-        <v>5073.781723005323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>5073.7817230053233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43465</v>
       </c>
@@ -2570,16 +4224,16 @@
         <v>27.36666666666666</v>
       </c>
       <c r="E49">
-        <v>142.1666666666667</v>
+        <v>142.16666666666671</v>
       </c>
       <c r="F49">
         <v>0.186</v>
       </c>
       <c r="G49">
-        <v>0.384</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="H49">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="I49">
         <v>0.21</v>
@@ -2588,16 +4242,193 @@
         <v>0.254</v>
       </c>
       <c r="K49">
-        <v>0.004720297278296676</v>
+        <v>4.7202972782966757E-3</v>
       </c>
       <c r="L49">
-        <v>51733.71246841176</v>
+        <v>51733.712468411759</v>
       </c>
       <c r="M49">
-        <v>52148.51101190165</v>
+        <v>52148.511011901654</v>
       </c>
       <c r="N49">
-        <v>52997.22048196998</v>
+        <v>52997.220481969976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>0.375</v>
+      </c>
+      <c r="F2">
+        <v>0.55798204335908541</v>
+      </c>
+      <c r="G2">
+        <v>0.42906013933881859</v>
+      </c>
+      <c r="H2">
+        <v>0.33215806258235459</v>
+      </c>
+      <c r="I2">
+        <v>0.1202222581074353</v>
+      </c>
+      <c r="J2">
+        <v>0.71507780226779694</v>
+      </c>
+      <c r="K2">
+        <v>0.43077334959952379</v>
+      </c>
+      <c r="L2">
+        <v>0.3009069435221246</v>
+      </c>
+      <c r="M2">
+        <v>0.54854985509261112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F3">
+        <v>0.53274393842798595</v>
+      </c>
+      <c r="G3">
+        <v>0.42060248365070257</v>
+      </c>
+      <c r="H3">
+        <v>0.21522644264446061</v>
+      </c>
+      <c r="I3">
+        <v>9.2152015722728436E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.26813826678024388</v>
+      </c>
+      <c r="K3">
+        <v>0.46949984690988572</v>
+      </c>
+      <c r="L3">
+        <v>0.35838363858750721</v>
+      </c>
+      <c r="M3">
+        <v>0.59865151681717743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4">
+        <v>0.56994303180868777</v>
+      </c>
+      <c r="G4">
+        <v>0.42035799939431828</v>
+      </c>
+      <c r="H4">
+        <v>0.29374311082746679</v>
+      </c>
+      <c r="I4">
+        <v>7.8958699438334848E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.80077753936948226</v>
+      </c>
+      <c r="K4">
+        <v>0.45111777582036772</v>
+      </c>
+      <c r="L4">
+        <v>0.33194785955337769</v>
+      </c>
+      <c r="M4">
+        <v>0.57614916432585217</v>
       </c>
     </row>
   </sheetData>
@@ -2605,173 +4436,1896 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:S46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>0.375</v>
-      </c>
-      <c r="F2">
-        <v>0.5579820433590854</v>
-      </c>
-      <c r="G2">
-        <v>0.4290601393388186</v>
-      </c>
-      <c r="H2">
-        <v>0.3321580625823546</v>
-      </c>
-      <c r="I2">
-        <v>0.1202222581074353</v>
-      </c>
-      <c r="J2">
-        <v>0.7150778022677969</v>
-      </c>
-      <c r="K2">
-        <v>0.4307733495995238</v>
-      </c>
-      <c r="L2">
-        <v>0.3009069435221246</v>
-      </c>
-      <c r="M2">
-        <v>0.5485498550926111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>42125</v>
       </c>
       <c r="E3">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="F3">
-        <v>0.532743938427986</v>
+        <v>2984</v>
       </c>
       <c r="G3">
-        <v>0.4206024836507026</v>
-      </c>
-      <c r="H3">
-        <v>0.2152264426444606</v>
+        <v>5805.6432760173348</v>
       </c>
       <c r="I3">
-        <v>0.09215201572272844</v>
-      </c>
-      <c r="J3">
-        <v>0.2681382667802439</v>
+        <v>5762.5748398955102</v>
       </c>
       <c r="K3">
-        <v>0.4694998469098857</v>
-      </c>
-      <c r="L3">
-        <v>0.3583836385875072</v>
-      </c>
-      <c r="M3">
-        <v>0.5986515168171774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
+        <v>5702.9411596876571</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="str">
+        <f>CONCATENATE(M3,N3,TEXT(C3,"mmm-yy"),N3)</f>
+        <v>"May-15"</v>
+      </c>
+      <c r="P3" t="str">
+        <f>CONCATENATE(M3,N3,TEXT(E3,"##"),N3)</f>
+        <v>"2984"</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>CONCATENATE(M3,N3,TEXT(G3,"##"),N3)</f>
+        <v>"5806"</v>
+      </c>
+      <c r="R3" t="str">
+        <f>CONCATENATE(M3,N3,TEXT(I3,"##"),N3)</f>
+        <v>"5763"</v>
+      </c>
+      <c r="S3" t="str">
+        <f>CONCATENATE(M3,N3,TEXT(K3,"##"),N3)</f>
+        <v>"5703"</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>42156</v>
       </c>
       <c r="E4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F4">
-        <v>0.5699430318086878</v>
+        <v>7684</v>
       </c>
       <c r="G4">
-        <v>0.4203579993943183</v>
-      </c>
-      <c r="H4">
-        <v>0.2937431108274668</v>
+        <v>5711.099785588247</v>
       </c>
       <c r="I4">
-        <v>0.07895869943833485</v>
-      </c>
-      <c r="J4">
-        <v>0.8007775393694823</v>
+        <v>5787.016182024332</v>
       </c>
       <c r="K4">
-        <v>0.4511177758203677</v>
-      </c>
-      <c r="L4">
-        <v>0.3319478595533777</v>
-      </c>
-      <c r="M4">
-        <v>0.5761491643258522</v>
+        <v>5742.6311727786306</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O46" si="0">CONCATENATE(M4,N4,TEXT(C4,"mmm-yy"),N4)</f>
+        <v>,"Jun-15"</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P43" si="1">CONCATENATE(M4,N4,TEXT(E4,"##"),N4)</f>
+        <v>,"7684"</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q46" si="2">CONCATENATE(M4,N4,TEXT(G4,"##"),N4)</f>
+        <v>,"5711"</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R46" si="3">CONCATENATE(M4,N4,TEXT(I4,"##"),N4)</f>
+        <v>,"5787"</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S46" si="4">CONCATENATE(M4,N4,TEXT(K4,"##"),N4)</f>
+        <v>,"5743"</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>42186</v>
+      </c>
+      <c r="E5">
+        <v>23058</v>
+      </c>
+      <c r="G5">
+        <v>18102.353637162789</v>
+      </c>
+      <c r="I5">
+        <v>18252.951781639418</v>
+      </c>
+      <c r="K5">
+        <v>17965.022894649039</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jul-15"</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>,"23058"</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="2"/>
+        <v>,"18102"</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="3"/>
+        <v>,"18253"</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="4"/>
+        <v>,"17965"</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>42217</v>
+      </c>
+      <c r="E6">
+        <v>35580</v>
+      </c>
+      <c r="G6">
+        <v>43433.022012820533</v>
+      </c>
+      <c r="I6">
+        <v>38158.358176787733</v>
+      </c>
+      <c r="K6">
+        <v>43809.985398998273</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Aug-15"</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>,"35580"</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="2"/>
+        <v>,"43433"</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="3"/>
+        <v>,"38158"</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="4"/>
+        <v>,"43810"</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>42248</v>
+      </c>
+      <c r="E7">
+        <v>32650</v>
+      </c>
+      <c r="G7">
+        <v>30469.651902487181</v>
+      </c>
+      <c r="I7">
+        <v>28624.482779210099</v>
+      </c>
+      <c r="K7">
+        <v>29767.947625453529</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Sep-15"</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>,"32650"</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="2"/>
+        <v>,"30470"</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="3"/>
+        <v>,"28624"</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="4"/>
+        <v>,"29768"</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>42278</v>
+      </c>
+      <c r="E8">
+        <v>50195</v>
+      </c>
+      <c r="G8">
+        <v>59885.690592761377</v>
+      </c>
+      <c r="I8">
+        <v>54313.936916095503</v>
+      </c>
+      <c r="K8">
+        <v>63104.473073716363</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Oct-15"</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>,"50195"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="2"/>
+        <v>,"59886"</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="3"/>
+        <v>,"54314"</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="4"/>
+        <v>,"63104"</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>42309</v>
+      </c>
+      <c r="E9">
+        <v>18757</v>
+      </c>
+      <c r="G9">
+        <v>29955.067396532049</v>
+      </c>
+      <c r="I9">
+        <v>19674.608337176531</v>
+      </c>
+      <c r="K9">
+        <v>28530.409650500489</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Nov-15"</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v>,"18757"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="2"/>
+        <v>,"29955"</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="3"/>
+        <v>,"19675"</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="4"/>
+        <v>,"28530"</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>42339</v>
+      </c>
+      <c r="E10">
+        <v>3891</v>
+      </c>
+      <c r="G10">
+        <v>13890.584515252651</v>
+      </c>
+      <c r="I10">
+        <v>19889.072888199331</v>
+      </c>
+      <c r="K10">
+        <v>15528.041300931331</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Dec-15"</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>,"3891"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="2"/>
+        <v>,"13891"</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="3"/>
+        <v>,"19889"</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="4"/>
+        <v>,"15528"</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>42370</v>
+      </c>
+      <c r="E11">
+        <v>9157</v>
+      </c>
+      <c r="G11">
+        <v>5129.1365887130187</v>
+      </c>
+      <c r="I11">
+        <v>6394.4711171714589</v>
+      </c>
+      <c r="K11">
+        <v>5301.8864195277019</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jan-16"</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>,"9157"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="2"/>
+        <v>,"5129"</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="3"/>
+        <v>,"6394"</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="4"/>
+        <v>,"5302"</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>42401</v>
+      </c>
+      <c r="E12">
+        <v>9633</v>
+      </c>
+      <c r="G12">
+        <v>8629.761237316603</v>
+      </c>
+      <c r="I12">
+        <v>8171.236297201468</v>
+      </c>
+      <c r="K12">
+        <v>8428.3887737728764</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Feb-16"</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v>,"9633"</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="2"/>
+        <v>,"8630"</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="3"/>
+        <v>,"8171"</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="4"/>
+        <v>,"8428"</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>42430</v>
+      </c>
+      <c r="E13">
+        <v>13019</v>
+      </c>
+      <c r="G13">
+        <v>12897.86141128997</v>
+      </c>
+      <c r="I13">
+        <v>13860.03864875716</v>
+      </c>
+      <c r="K13">
+        <v>10158.501848928339</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Mar-16"</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="1"/>
+        <v>,"13019"</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="2"/>
+        <v>,"12898"</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="3"/>
+        <v>,"13860"</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="4"/>
+        <v>,"10159"</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>42461</v>
+      </c>
+      <c r="E14">
+        <v>11433.125</v>
+      </c>
+      <c r="G14">
+        <v>13881.73016765136</v>
+      </c>
+      <c r="I14">
+        <v>14692.035465749321</v>
+      </c>
+      <c r="K14">
+        <v>14293.98060450374</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Apr-16"</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v>,"11433"</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="2"/>
+        <v>,"13882"</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="3"/>
+        <v>,"14692"</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="4"/>
+        <v>,"14294"</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>42491</v>
+      </c>
+      <c r="E15">
+        <v>7087.5</v>
+      </c>
+      <c r="G15">
+        <v>3514.7863240753381</v>
+      </c>
+      <c r="I15">
+        <v>3250.5349069596541</v>
+      </c>
+      <c r="K15">
+        <v>3648.1318448353318</v>
+      </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>,"May-16"</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v>,"7088"</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="2"/>
+        <v>,"3515"</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3251"</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v>,"3648"</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>42522</v>
+      </c>
+      <c r="E16">
+        <v>10894</v>
+      </c>
+      <c r="G16">
+        <v>12869.95990542115</v>
+      </c>
+      <c r="I16">
+        <v>12881.956730785891</v>
+      </c>
+      <c r="K16">
+        <v>12780.807915037991</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jun-16"</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v>,"10894"</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="2"/>
+        <v>,"12870"</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="3"/>
+        <v>,"12882"</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="4"/>
+        <v>,"12781"</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>42552</v>
+      </c>
+      <c r="E17">
+        <v>11112</v>
+      </c>
+      <c r="G17">
+        <v>24611.925520733559</v>
+      </c>
+      <c r="I17">
+        <v>24775.48714217652</v>
+      </c>
+      <c r="K17">
+        <v>24664.825358094698</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jul-16"</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>,"11112"</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="2"/>
+        <v>,"24612"</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="3"/>
+        <v>,"24775"</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="4"/>
+        <v>,"24665"</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>42583</v>
+      </c>
+      <c r="E18">
+        <v>39941</v>
+      </c>
+      <c r="G18">
+        <v>24611.141262468082</v>
+      </c>
+      <c r="I18">
+        <v>21772.19333586713</v>
+      </c>
+      <c r="K18">
+        <v>25031.451668823331</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Aug-16"</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>,"39941"</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="2"/>
+        <v>,"24611"</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="3"/>
+        <v>,"21772"</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="4"/>
+        <v>,"25031"</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>42614</v>
+      </c>
+      <c r="E19">
+        <v>31609</v>
+      </c>
+      <c r="G19">
+        <v>39938.515465712262</v>
+      </c>
+      <c r="I19">
+        <v>41988.331191623758</v>
+      </c>
+      <c r="K19">
+        <v>40691.409689011431</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Sep-16"</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>,"31609"</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="2"/>
+        <v>,"39939"</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="3"/>
+        <v>,"41988"</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="4"/>
+        <v>,"40691"</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>42644</v>
+      </c>
+      <c r="E20">
+        <v>34164</v>
+      </c>
+      <c r="G20">
+        <v>19697.112645325731</v>
+      </c>
+      <c r="I20">
+        <v>14618.4316204185</v>
+      </c>
+      <c r="K20">
+        <v>20811.754628903589</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Oct-16"</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="1"/>
+        <v>,"34164"</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="2"/>
+        <v>,"19697"</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="3"/>
+        <v>,"14618"</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="4"/>
+        <v>,"20812"</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>42675</v>
+      </c>
+      <c r="E21">
+        <v>15842</v>
+      </c>
+      <c r="G21">
+        <v>13526.637019278591</v>
+      </c>
+      <c r="I21">
+        <v>20532.202954422752</v>
+      </c>
+      <c r="K21">
+        <v>14830.92471855586</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Nov-16"</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="1"/>
+        <v>,"15842"</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="2"/>
+        <v>,"13527"</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="3"/>
+        <v>,"20532"</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="4"/>
+        <v>,"14831"</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>42705</v>
+      </c>
+      <c r="E22">
+        <v>28265</v>
+      </c>
+      <c r="G22">
+        <v>21694.665691366288</v>
+      </c>
+      <c r="I22">
+        <v>22653.87159693271</v>
+      </c>
+      <c r="K22">
+        <v>22290.305396883181</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Dec-16"</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="1"/>
+        <v>,"28265"</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="2"/>
+        <v>,"21695"</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="3"/>
+        <v>,"22654"</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="4"/>
+        <v>,"22290"</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>42736</v>
+      </c>
+      <c r="E23">
+        <v>11391</v>
+      </c>
+      <c r="G23">
+        <v>24641.605269780961</v>
+      </c>
+      <c r="I23">
+        <v>25165.18900381646</v>
+      </c>
+      <c r="K23">
+        <v>25485.906925670159</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jan-17"</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>,"11391"</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v>,"24642"</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="3"/>
+        <v>,"25165"</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="4"/>
+        <v>,"25486"</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>42767</v>
+      </c>
+      <c r="E24">
+        <v>9585</v>
+      </c>
+      <c r="G24">
+        <v>10832.995276370761</v>
+      </c>
+      <c r="I24">
+        <v>11403.38487917205</v>
+      </c>
+      <c r="K24">
+        <v>11083.495847761589</v>
+      </c>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Feb-17"</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="1"/>
+        <v>,"9585"</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v>,"10833"</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="3"/>
+        <v>,"11403"</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="4"/>
+        <v>,"11083"</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>42795</v>
+      </c>
+      <c r="E25">
+        <v>5457</v>
+      </c>
+      <c r="G25">
+        <v>11579.192111010319</v>
+      </c>
+      <c r="I25">
+        <v>11443.71728504503</v>
+      </c>
+      <c r="K25">
+        <v>8303.2446567031675</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Mar-17"</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="1"/>
+        <v>,"5457"</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v>,"11579"</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="3"/>
+        <v>,"11444"</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="4"/>
+        <v>,"8303"</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>42826</v>
+      </c>
+      <c r="E26">
+        <v>7327</v>
+      </c>
+      <c r="G26">
+        <v>8301.9370777365675</v>
+      </c>
+      <c r="I26">
+        <v>8293.7847699397025</v>
+      </c>
+      <c r="K26">
+        <v>8790.8521328446004</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Apr-17"</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="1"/>
+        <v>,"7327"</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="2"/>
+        <v>,"8302"</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="3"/>
+        <v>,"8294"</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="4"/>
+        <v>,"8791"</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>42856</v>
+      </c>
+      <c r="E27">
+        <v>4473</v>
+      </c>
+      <c r="G27">
+        <v>3116.3592255159501</v>
+      </c>
+      <c r="I27">
+        <v>3341.3613876293221</v>
+      </c>
+      <c r="K27">
+        <v>3163.619562301446</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v>,"May-17"</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="1"/>
+        <v>,"4473"</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="2"/>
+        <v>,"3116"</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3341"</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="4"/>
+        <v>,"3164"</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>42887</v>
+      </c>
+      <c r="E28">
+        <v>5537</v>
+      </c>
+      <c r="G28">
+        <v>8693.836801225425</v>
+      </c>
+      <c r="I28">
+        <v>8741.3008276324872</v>
+      </c>
+      <c r="K28">
+        <v>8690.0477872792435</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jun-17"</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="1"/>
+        <v>,"5537"</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v>,"8694"</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="3"/>
+        <v>,"8741"</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="4"/>
+        <v>,"8690"</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>42917</v>
+      </c>
+      <c r="E29">
+        <v>14828</v>
+      </c>
+      <c r="G29">
+        <v>11664.8335794995</v>
+      </c>
+      <c r="I29">
+        <v>11852.927392167119</v>
+      </c>
+      <c r="K29">
+        <v>11701.622371510501</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jul-17"</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="1"/>
+        <v>,"14828"</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="2"/>
+        <v>,"11665"</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="3"/>
+        <v>,"11853"</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="4"/>
+        <v>,"11702"</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>42948</v>
+      </c>
+      <c r="E30">
+        <v>17793</v>
+      </c>
+      <c r="G30">
+        <v>28088.901069561351</v>
+      </c>
+      <c r="I30">
+        <v>26501.50118537973</v>
+      </c>
+      <c r="K30">
+        <v>28415.849606388962</v>
+      </c>
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Aug-17"</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="1"/>
+        <v>,"17793"</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="2"/>
+        <v>,"28089"</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="3"/>
+        <v>,"26502"</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="4"/>
+        <v>,"28416"</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="3">
+        <v>42979</v>
+      </c>
+      <c r="E31">
+        <v>20896</v>
+      </c>
+      <c r="G31">
+        <v>18275.707963560981</v>
+      </c>
+      <c r="I31">
+        <v>18285.291918731211</v>
+      </c>
+      <c r="K31">
+        <v>18291.218378509209</v>
+      </c>
+      <c r="M31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Sep-17"</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="1"/>
+        <v>,"20896"</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="2"/>
+        <v>,"18276"</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="3"/>
+        <v>,"18285"</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="4"/>
+        <v>,"18291"</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <v>43009</v>
+      </c>
+      <c r="E32">
+        <v>20367</v>
+      </c>
+      <c r="G32">
+        <v>13921.283528965831</v>
+      </c>
+      <c r="I32">
+        <v>12706.59676870019</v>
+      </c>
+      <c r="K32">
+        <v>15165.335245847191</v>
+      </c>
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Oct-17"</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="1"/>
+        <v>,"20367"</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="2"/>
+        <v>,"13921"</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="3"/>
+        <v>,"12707"</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="4"/>
+        <v>,"15165"</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
+        <v>43040</v>
+      </c>
+      <c r="E33">
+        <v>14173</v>
+      </c>
+      <c r="G33">
+        <v>11009.612204229599</v>
+      </c>
+      <c r="I33">
+        <v>11004.590962789351</v>
+      </c>
+      <c r="K33">
+        <v>10810.12170612453</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Nov-17"</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="1"/>
+        <v>,"14173"</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="2"/>
+        <v>,"11010"</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="3"/>
+        <v>,"11005"</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="4"/>
+        <v>,"10810"</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <v>43070</v>
+      </c>
+      <c r="E34">
+        <v>20397</v>
+      </c>
+      <c r="G34">
+        <v>19301.662756972841</v>
+      </c>
+      <c r="I34">
+        <v>19356.32772166342</v>
+      </c>
+      <c r="K34">
+        <v>19944.427571725249</v>
+      </c>
+      <c r="M34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Dec-17"</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="1"/>
+        <v>,"20397"</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="2"/>
+        <v>,"19302"</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="3"/>
+        <v>,"19356"</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="4"/>
+        <v>,"19944"</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <v>43101</v>
+      </c>
+      <c r="E35">
+        <v>8758</v>
+      </c>
+      <c r="G35">
+        <v>33512.549181368937</v>
+      </c>
+      <c r="I35">
+        <v>33631.281972223776</v>
+      </c>
+      <c r="K35">
+        <v>34982.294704108652</v>
+      </c>
+      <c r="M35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jan-18"</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="1"/>
+        <v>,"8758"</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="2"/>
+        <v>,"33513"</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="3"/>
+        <v>,"33631"</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="4"/>
+        <v>,"34982"</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C36" s="3">
+        <v>43132</v>
+      </c>
+      <c r="E36">
+        <v>6841</v>
+      </c>
+      <c r="G36">
+        <v>4296.8195877652342</v>
+      </c>
+      <c r="I36">
+        <v>5347.3283307690153</v>
+      </c>
+      <c r="K36">
+        <v>4238.4235274039493</v>
+      </c>
+      <c r="M36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Feb-18"</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="1"/>
+        <v>,"6841"</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="2"/>
+        <v>,"4297"</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="3"/>
+        <v>,"5347"</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="4"/>
+        <v>,"4238"</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="3">
+        <v>43160</v>
+      </c>
+      <c r="E37">
+        <v>10443</v>
+      </c>
+      <c r="G37">
+        <v>11309.677218243171</v>
+      </c>
+      <c r="I37">
+        <v>11594.573537144001</v>
+      </c>
+      <c r="K37">
+        <v>9302.8522520546321</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Mar-18"</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="1"/>
+        <v>,"10443"</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="2"/>
+        <v>,"11310"</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="3"/>
+        <v>,"11595"</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="4"/>
+        <v>,"9303"</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <v>43191</v>
+      </c>
+      <c r="E38">
+        <v>6215</v>
+      </c>
+      <c r="G38">
+        <v>9378.6878040606061</v>
+      </c>
+      <c r="I38">
+        <v>9781.1230610263465</v>
+      </c>
+      <c r="K38">
+        <v>9768.9358243489241</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Apr-18"</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="1"/>
+        <v>,"6215"</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="2"/>
+        <v>,"9379"</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="3"/>
+        <v>,"9781"</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="4"/>
+        <v>,"9769"</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
+        <v>43221</v>
+      </c>
+      <c r="E39">
+        <v>7321</v>
+      </c>
+      <c r="G39">
+        <v>6671.6493641687784</v>
+      </c>
+      <c r="I39">
+        <v>6890.9283747832596</v>
+      </c>
+      <c r="K39">
+        <v>6682.5229162547421</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="0"/>
+        <v>,"May-18"</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="1"/>
+        <v>,"7321"</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="2"/>
+        <v>,"6672"</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="3"/>
+        <v>,"6891"</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="4"/>
+        <v>,"6683"</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C40" s="3">
+        <v>43252</v>
+      </c>
+      <c r="E40">
+        <v>10307</v>
+      </c>
+      <c r="G40">
+        <v>9164.7170368879997</v>
+      </c>
+      <c r="I40">
+        <v>8555.6246323129726</v>
+      </c>
+      <c r="K40">
+        <v>9254.3167123703788</v>
+      </c>
+      <c r="M40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jun-18"</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="1"/>
+        <v>,"10307"</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="2"/>
+        <v>,"9165"</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="3"/>
+        <v>,"8556"</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="4"/>
+        <v>,"9254"</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C41" s="3">
+        <v>43282</v>
+      </c>
+      <c r="E41">
+        <v>19203</v>
+      </c>
+      <c r="G41">
+        <v>21675.367602459519</v>
+      </c>
+      <c r="I41">
+        <v>22319.41993956003</v>
+      </c>
+      <c r="K41">
+        <v>21819.090157633909</v>
+      </c>
+      <c r="M41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jul-18"</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="1"/>
+        <v>,"19203"</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="2"/>
+        <v>,"21675"</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="3"/>
+        <v>,"22319"</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="4"/>
+        <v>,"21819"</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C42" s="3">
+        <v>43313</v>
+      </c>
+      <c r="E42">
+        <v>58390</v>
+      </c>
+      <c r="G42">
+        <v>42264.522957005916</v>
+      </c>
+      <c r="I42">
+        <v>37651.882486119473</v>
+      </c>
+      <c r="K42">
+        <v>42300.226564952121</v>
+      </c>
+      <c r="M42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Aug-18"</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="1"/>
+        <v>,"58390"</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="2"/>
+        <v>,"42265"</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="3"/>
+        <v>,"37652"</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="4"/>
+        <v>,"42300"</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C43" s="3">
+        <v>43344</v>
+      </c>
+      <c r="E43">
+        <v>47407.5</v>
+      </c>
+      <c r="G43">
+        <v>39634.01944072418</v>
+      </c>
+      <c r="I43">
+        <v>40068.916220763072</v>
+      </c>
+      <c r="K43">
+        <v>42645.226667340503</v>
+      </c>
+      <c r="M43" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Sep-18"</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="1"/>
+        <v>,"47408"</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="2"/>
+        <v>,"39634"</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="3"/>
+        <v>,"40069"</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="4"/>
+        <v>,"42645"</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C44" s="3">
+        <v>43374</v>
+      </c>
+      <c r="G44">
+        <v>52723.868292360683</v>
+      </c>
+      <c r="I44">
+        <v>55624.815011671439</v>
+      </c>
+      <c r="K44">
+        <v>55887.895664479838</v>
+      </c>
+      <c r="M44" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Oct-18"</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="2"/>
+        <v>,"52724"</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="3"/>
+        <v>,"55625"</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="4"/>
+        <v>,"55888"</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C45" s="3">
+        <v>43405</v>
+      </c>
+      <c r="G45">
+        <v>6089.6494911482323</v>
+      </c>
+      <c r="I45">
+        <v>3281.0460969727951</v>
+      </c>
+      <c r="K45">
+        <v>5073.7817230053233</v>
+      </c>
+      <c r="M45" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Nov-18"</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="2"/>
+        <v>,"6090"</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3281"</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="4"/>
+        <v>,"5074"</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C46" s="3">
+        <v>43435</v>
+      </c>
+      <c r="G46">
+        <v>51733.712468411759</v>
+      </c>
+      <c r="I46">
+        <v>52148.511011901654</v>
+      </c>
+      <c r="K46">
+        <v>52997.220481969976</v>
+      </c>
+      <c r="M46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Dec-18"</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="2"/>
+        <v>,"51734"</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="3"/>
+        <v>,"52149"</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="4"/>
+        <v>,"52997"</v>
       </c>
     </row>
   </sheetData>
